--- a/data/Visitor_Forecast.xlsx
+++ b/data/Visitor_Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Visitor-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F972D69-7216-4B43-A134-6B155646A01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12237060-7393-45BF-B20A-B310BAE406C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{453D2946-0AEF-40C2-AED9-9CB59B659027}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="2">
-  <si>
-    <t>None</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>date</t>
   </si>
@@ -482,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB99865C-55B5-452E-B619-FE821BAB7768}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14">
         <v>0.39583333333333331</v>
@@ -532,541 +529,538 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45124</v>
+        <v>45033</v>
       </c>
       <c r="G2" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I2" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45125</v>
-      </c>
-      <c r="G3" s="12">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13">
-        <v>3</v>
-      </c>
+        <v>45034</v>
+      </c>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45126</v>
+        <v>45035</v>
       </c>
       <c r="G4" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H4" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45127</v>
+        <v>45036</v>
       </c>
       <c r="G5" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" s="12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I5" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45131</v>
-      </c>
-      <c r="G6" s="12">
-        <v>9</v>
-      </c>
-      <c r="H6" s="12">
-        <v>2</v>
-      </c>
-      <c r="I6" s="13">
-        <v>2</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45132</v>
+        <v>45038</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>2</v>
-      </c>
-      <c r="I7" s="13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45133</v>
+        <v>45039</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45134</v>
+        <v>45040</v>
       </c>
       <c r="G9" s="12">
         <v>2</v>
       </c>
       <c r="H9" s="12">
-        <v>2</v>
-      </c>
-      <c r="I9" s="13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45138</v>
+        <v>45041</v>
       </c>
       <c r="G10" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12">
-        <v>6</v>
-      </c>
-      <c r="I10" s="13">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45139</v>
+        <v>45042</v>
       </c>
       <c r="G11" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="12">
-        <v>2</v>
-      </c>
-      <c r="I11" s="13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45140</v>
+        <v>45043</v>
       </c>
       <c r="G12" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45141</v>
-      </c>
-      <c r="G13" s="12">
-        <v>4</v>
-      </c>
-      <c r="H13" s="12">
-        <v>4</v>
-      </c>
-      <c r="I13" s="13">
-        <v>4</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45145</v>
+        <v>45045</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
-        <v>4</v>
-      </c>
-      <c r="I14" s="13">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45146</v>
+        <v>45046</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
       </c>
       <c r="G15" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
-        <v>7</v>
-      </c>
-      <c r="I15" s="13">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45147</v>
-      </c>
-      <c r="G16" s="12">
-        <v>4</v>
-      </c>
-      <c r="H16" s="12">
-        <v>4</v>
-      </c>
-      <c r="I16" s="13">
-        <v>3</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45159</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
+        <v>45048</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45160</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13"/>
+        <v>45049</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2</v>
+      </c>
+      <c r="I18" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45161</v>
-      </c>
-      <c r="B19" s="12">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>4</v>
-      </c>
-      <c r="E19" s="12">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12">
-        <v>4</v>
+        <v>45050</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
       </c>
       <c r="H19" s="12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45162</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>3</v>
-      </c>
-      <c r="D20" s="12">
-        <v>5</v>
-      </c>
-      <c r="E20" s="12">
-        <v>7</v>
-      </c>
-      <c r="F20" s="12">
-        <v>5</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>0</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45163</v>
+        <v>45052</v>
       </c>
       <c r="B21" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12">
-        <v>4</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45166</v>
+        <v>45053</v>
       </c>
       <c r="B22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
       </c>
       <c r="H22" s="12">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45167</v>
-      </c>
-      <c r="B23" s="12">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
-        <v>5</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12">
+        <v>45054</v>
+      </c>
+      <c r="G23" s="12">
         <v>1</v>
       </c>
       <c r="H23" s="12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45168</v>
-      </c>
-      <c r="B24" s="12">
-        <v>2</v>
-      </c>
-      <c r="C24" s="12">
-        <v>2</v>
-      </c>
-      <c r="D24" s="12">
-        <v>4</v>
-      </c>
-      <c r="E24" s="12">
-        <v>6</v>
-      </c>
-      <c r="F24" s="12">
-        <v>9</v>
+        <v>45055</v>
+      </c>
+      <c r="G24" s="12">
+        <v>4</v>
       </c>
       <c r="H24" s="12">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="I24" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45169</v>
+        <v>45056</v>
       </c>
       <c r="B25" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25" s="12">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2</v>
       </c>
       <c r="H25" s="12">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="I25" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45170</v>
+        <v>45057</v>
       </c>
       <c r="B26" s="12">
         <v>1</v>
       </c>
       <c r="C26" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D26" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
       </c>
       <c r="H26" s="12">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45173</v>
+        <v>45058</v>
       </c>
       <c r="B27" s="12">
         <v>1</v>
       </c>
       <c r="C27" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E27" s="12">
-        <v>15</v>
-      </c>
-      <c r="F27" s="12">
-        <v>13</v>
-      </c>
-      <c r="H27" s="12">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45174</v>
+        <v>45061</v>
       </c>
       <c r="B28" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E28" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F28" s="12">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
       </c>
       <c r="H28" s="12">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45175</v>
+        <v>45062</v>
       </c>
       <c r="B29" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29" s="12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E29" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F29" s="12">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>3</v>
       </c>
       <c r="H29" s="12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45176</v>
+        <v>45063</v>
       </c>
       <c r="B30" s="12">
         <v>2</v>
       </c>
       <c r="C30" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D30" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E30" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
       </c>
       <c r="H30" s="12">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45177</v>
+        <v>45064</v>
       </c>
       <c r="B31" s="12">
         <v>0</v>
@@ -1075,426 +1069,390 @@
         <v>0</v>
       </c>
       <c r="D31" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="12">
-        <v>3</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45180</v>
+        <v>45065</v>
       </c>
       <c r="B32" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32" s="12">
-        <v>6</v>
-      </c>
-      <c r="F32" s="12">
-        <v>6</v>
-      </c>
-      <c r="H32" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45181</v>
+        <v>45066</v>
       </c>
       <c r="B33" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C33" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D33" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F33" s="12">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
       </c>
       <c r="H33" s="12">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45182</v>
+        <v>45067</v>
       </c>
       <c r="B34" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C34" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34" s="12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F34" s="12">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
       </c>
       <c r="H34" s="12">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45183</v>
+        <v>45068</v>
       </c>
       <c r="B35" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D35" s="12">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E35" s="12">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F35" s="12">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2</v>
       </c>
       <c r="H35" s="12">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45184</v>
+        <v>45069</v>
       </c>
       <c r="B36" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36" s="12">
-        <v>9</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45187</v>
+        <v>45070</v>
       </c>
       <c r="B37" s="12">
         <v>2</v>
       </c>
       <c r="C37" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="12">
         <v>6</v>
       </c>
       <c r="E37" s="12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F37" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G37" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H37" s="12">
-        <v>4</v>
-      </c>
-      <c r="I37" s="13">
+        <v>2</v>
+      </c>
+      <c r="I37" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45188</v>
+        <v>45071</v>
       </c>
       <c r="B38" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" s="12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" s="12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E38" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F38" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="12">
-        <v>1</v>
-      </c>
-      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>45190</v>
+        <v>45072</v>
       </c>
       <c r="B39" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D39" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39" s="12">
-        <v>15</v>
-      </c>
-      <c r="F39" s="12">
-        <v>8</v>
-      </c>
-      <c r="G39" s="12">
-        <v>8</v>
-      </c>
-      <c r="H39" s="12">
-        <v>8</v>
-      </c>
-      <c r="I39" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>45191</v>
+        <v>45073</v>
       </c>
       <c r="B40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12">
-        <v>6</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>45194</v>
+        <v>45074</v>
       </c>
       <c r="B41" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D41" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E41" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F41" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="12">
-        <v>2</v>
-      </c>
-      <c r="I41" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>45195</v>
-      </c>
-      <c r="B42" s="12">
-        <v>3</v>
-      </c>
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="12">
-        <v>9</v>
-      </c>
-      <c r="E42" s="12">
-        <v>6</v>
-      </c>
-      <c r="F42" s="12">
-        <v>2</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>0</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>45196</v>
+        <v>45076</v>
       </c>
       <c r="B43" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="12">
         <v>4</v>
       </c>
       <c r="D43" s="12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E43" s="12">
-        <v>12</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12">
+        <v>1</v>
+      </c>
+      <c r="I43" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45197</v>
+        <v>45077</v>
       </c>
       <c r="B44" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E44" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <v>0</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45198</v>
+        <v>45078</v>
       </c>
       <c r="B45" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D45" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E45" s="12">
-        <v>5</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45201</v>
+        <v>45079</v>
       </c>
       <c r="B46" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="12">
         <v>0</v>
       </c>
       <c r="E46" s="12">
-        <v>3</v>
-      </c>
-      <c r="F46" s="12">
-        <v>1</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-      <c r="H46" s="12">
-        <v>1</v>
-      </c>
-      <c r="I46" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45202</v>
+        <v>45080</v>
       </c>
       <c r="B47" s="12">
         <v>0</v>
@@ -1517,515 +1475,471 @@
       <c r="H47" s="12">
         <v>0</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45203</v>
+        <v>45081</v>
       </c>
       <c r="B48" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D48" s="12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E48" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G48" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48" s="12">
-        <v>2</v>
-      </c>
-      <c r="I48" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45204</v>
+        <v>45082</v>
       </c>
       <c r="B49" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="12">
         <v>2</v>
       </c>
       <c r="D49" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E49" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="12">
-        <v>1</v>
-      </c>
-      <c r="I49" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45205</v>
+        <v>45083</v>
       </c>
       <c r="B50" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C50" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E50" s="12">
-        <v>3</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F50" s="12">
+        <v>2</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>45208</v>
+        <v>45084</v>
       </c>
       <c r="B51" s="12">
         <v>2</v>
       </c>
       <c r="C51" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D51" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E51" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" s="12">
-        <v>2</v>
-      </c>
-      <c r="I51" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45209</v>
+        <v>45085</v>
       </c>
       <c r="B52" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D52" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E52" s="12">
-        <v>5</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
         <v>0</v>
       </c>
       <c r="H52" s="12">
-        <v>1</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45210</v>
+        <v>45086</v>
       </c>
       <c r="B53" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="12">
         <v>6</v>
       </c>
       <c r="E53" s="12">
-        <v>3</v>
-      </c>
-      <c r="F53" s="12">
-        <v>1</v>
-      </c>
-      <c r="G53" s="12">
-        <v>2</v>
-      </c>
-      <c r="H53" s="12">
-        <v>1</v>
-      </c>
-      <c r="I53" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45211</v>
+        <v>45087</v>
       </c>
       <c r="B54" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E54" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" s="12">
-        <v>2</v>
-      </c>
-      <c r="I54" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>45212</v>
+        <v>45088</v>
       </c>
       <c r="B55" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D55" s="12">
         <v>0</v>
       </c>
       <c r="E55" s="12">
-        <v>3</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>45215</v>
+        <v>45089</v>
       </c>
       <c r="B56" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D56" s="12">
+        <v>5</v>
+      </c>
+      <c r="E56" s="12">
+        <v>6</v>
+      </c>
+      <c r="F56" s="12">
+        <v>4</v>
+      </c>
+      <c r="G56" s="12">
+        <v>3</v>
+      </c>
+      <c r="H56" s="12">
+        <v>1</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B57" s="12">
+        <v>4</v>
+      </c>
+      <c r="C57" s="12">
+        <v>9</v>
+      </c>
+      <c r="D57" s="12">
+        <v>9</v>
+      </c>
+      <c r="E57" s="12">
+        <v>5</v>
+      </c>
+      <c r="F57" s="12">
+        <v>4</v>
+      </c>
+      <c r="G57" s="12">
+        <v>2</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12">
+        <v>3</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2</v>
+      </c>
+      <c r="E58" s="12">
+        <v>7</v>
+      </c>
+      <c r="F58" s="12">
+        <v>11</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12">
+        <v>10</v>
+      </c>
+      <c r="D59" s="12">
+        <v>10</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
+      <c r="D60" s="12">
+        <v>3</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12">
+        <v>6</v>
+      </c>
+      <c r="D61" s="12">
+        <v>7</v>
+      </c>
+      <c r="E61" s="12">
+        <v>7</v>
+      </c>
+      <c r="F61" s="12">
+        <v>2</v>
+      </c>
+      <c r="G61" s="12">
+        <v>2</v>
+      </c>
+      <c r="H61" s="12">
+        <v>2</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B62" s="12">
+        <v>3</v>
+      </c>
+      <c r="C62" s="12">
         <v>8</v>
       </c>
-      <c r="E56" s="12">
-        <v>7</v>
-      </c>
-      <c r="F56" s="12">
-        <v>7</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" s="12">
-        <v>2</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>45216</v>
-      </c>
-      <c r="B57" s="12">
-        <v>1</v>
-      </c>
-      <c r="C57" s="12">
-        <v>4</v>
-      </c>
-      <c r="D57" s="12">
-        <v>2</v>
-      </c>
-      <c r="E57" s="12">
-        <v>4</v>
-      </c>
-      <c r="F57" s="12">
-        <v>1</v>
-      </c>
-      <c r="G57" s="12">
-        <v>1</v>
-      </c>
-      <c r="H57" s="12">
-        <v>1</v>
-      </c>
-      <c r="I57" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>45217</v>
-      </c>
-      <c r="B58" s="12">
-        <v>1</v>
-      </c>
-      <c r="C58" s="12">
-        <v>4</v>
-      </c>
-      <c r="D58" s="12">
-        <v>12</v>
-      </c>
-      <c r="E58" s="12">
-        <v>7</v>
-      </c>
-      <c r="F58" s="12">
-        <v>5</v>
-      </c>
-      <c r="G58" s="12">
-        <v>4</v>
-      </c>
-      <c r="H58" s="12">
-        <v>4</v>
-      </c>
-      <c r="I58" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>45218</v>
-      </c>
-      <c r="B59" s="12">
-        <v>6</v>
-      </c>
-      <c r="C59" s="12">
-        <v>7</v>
-      </c>
-      <c r="D59" s="12">
-        <v>16</v>
-      </c>
-      <c r="E59" s="12">
-        <v>5</v>
-      </c>
-      <c r="F59" s="12">
-        <v>2</v>
-      </c>
-      <c r="G59" s="12">
-        <v>2</v>
-      </c>
-      <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>45219</v>
-      </c>
-      <c r="B60" s="9">
-        <v>5</v>
-      </c>
-      <c r="C60" s="9">
-        <v>2</v>
-      </c>
-      <c r="D60" s="9">
-        <v>6</v>
-      </c>
-      <c r="E60" s="9">
-        <v>6</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>45222</v>
-      </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9">
-        <v>4</v>
-      </c>
-      <c r="D61" s="9">
-        <v>8</v>
-      </c>
-      <c r="E61" s="9">
-        <v>6</v>
-      </c>
-      <c r="F61" s="9">
-        <v>5</v>
-      </c>
-      <c r="G61" s="9">
-        <v>5</v>
-      </c>
-      <c r="H61" s="9">
-        <v>4</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>45223</v>
-      </c>
-      <c r="B62" s="9">
-        <v>4</v>
-      </c>
-      <c r="C62" s="9">
-        <v>7</v>
-      </c>
-      <c r="D62" s="9">
-        <v>12</v>
-      </c>
-      <c r="E62" s="9">
-        <v>7</v>
-      </c>
-      <c r="F62" s="9">
-        <v>2</v>
-      </c>
-      <c r="G62" s="9">
-        <v>2</v>
-      </c>
-      <c r="H62" s="9">
-        <v>2</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-      <c r="J62" s="17"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D62" s="12">
+        <v>7</v>
+      </c>
+      <c r="E62" s="12">
+        <v>3</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>45224</v>
-      </c>
-      <c r="B63" s="9">
-        <v>6</v>
-      </c>
-      <c r="C63" s="9">
-        <v>5</v>
-      </c>
-      <c r="D63" s="9">
-        <v>16</v>
-      </c>
-      <c r="E63" s="9">
-        <v>13</v>
-      </c>
-      <c r="F63" s="9">
-        <v>8</v>
-      </c>
-      <c r="G63" s="9">
-        <v>4</v>
-      </c>
-      <c r="H63" s="9">
-        <v>3</v>
-      </c>
-      <c r="I63" s="11">
-        <v>2</v>
-      </c>
-      <c r="J63" s="17"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+        <v>45098</v>
+      </c>
+      <c r="B63" s="12">
+        <v>3</v>
+      </c>
+      <c r="C63" s="12">
+        <v>4</v>
+      </c>
+      <c r="D63" s="12">
+        <v>4</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>45225</v>
+        <v>45099</v>
       </c>
       <c r="B64" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="12">
         <v>4</v>
       </c>
       <c r="D64" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E64" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" s="12">
-        <v>7</v>
-      </c>
-      <c r="G64" s="9">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
       </c>
       <c r="H64" s="12">
         <v>0</v>
@@ -2033,18 +1947,13 @@
       <c r="I64" s="13">
         <v>0</v>
       </c>
-      <c r="J64" s="18"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>45226</v>
+        <v>45100</v>
       </c>
       <c r="B65" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" s="12">
         <v>1</v>
@@ -2053,62 +1962,48 @@
         <v>2</v>
       </c>
       <c r="E65" s="12">
-        <v>2</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>45229</v>
+        <v>45103</v>
       </c>
       <c r="B66" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E66" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" s="12">
-        <v>5</v>
-      </c>
-      <c r="G66" s="9">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
       </c>
       <c r="H66" s="12">
-        <v>2</v>
-      </c>
-      <c r="I66" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>45230</v>
+        <v>45104</v>
       </c>
       <c r="B67" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="12">
         <v>7</v>
       </c>
       <c r="D67" s="12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E67" s="12">
         <v>4</v>
@@ -2116,254 +2011,224 @@
       <c r="F67" s="12">
         <v>4</v>
       </c>
-      <c r="G67" s="9">
-        <v>2</v>
+      <c r="G67" s="12">
+        <v>4</v>
       </c>
       <c r="H67" s="12">
-        <v>2</v>
-      </c>
-      <c r="I67" s="13">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="I67" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>45232</v>
-      </c>
-      <c r="B68" s="12">
-        <v>1</v>
-      </c>
-      <c r="C68" s="12">
-        <v>7</v>
+        <v>45105</v>
       </c>
       <c r="D68" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="12">
-        <v>7</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F68" s="12">
+        <v>3</v>
+      </c>
+      <c r="G68" s="12">
+        <v>3</v>
+      </c>
+      <c r="H68" s="12">
+        <v>1</v>
+      </c>
+      <c r="I68" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>45233</v>
+        <v>45106</v>
       </c>
       <c r="B69" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E69" s="12">
-        <v>5</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0</v>
+      </c>
+      <c r="H69" s="12">
+        <v>1</v>
+      </c>
+      <c r="I69" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>45236</v>
+        <v>45107</v>
       </c>
       <c r="B70" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E70" s="12">
-        <v>9</v>
-      </c>
-      <c r="F70" s="12">
-        <v>7</v>
-      </c>
-      <c r="G70" s="12">
-        <v>5</v>
-      </c>
-      <c r="H70" s="12">
-        <v>4</v>
-      </c>
-      <c r="I70" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>45237</v>
+        <v>45110</v>
       </c>
       <c r="B71" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C71" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D71" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E71" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F71" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="12">
         <v>2</v>
       </c>
       <c r="H71" s="12">
-        <v>1</v>
-      </c>
-      <c r="I71" s="13">
+        <v>2</v>
+      </c>
+      <c r="I71" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>45238</v>
+        <v>45111</v>
       </c>
       <c r="B72" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" s="12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E72" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F72" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G72" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" s="12">
-        <v>3</v>
-      </c>
-      <c r="I72" s="13">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I72" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>45239</v>
+        <v>45113</v>
       </c>
       <c r="B73" s="12">
         <v>1</v>
       </c>
       <c r="C73" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" s="12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E73" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F73" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="12">
-        <v>2</v>
-      </c>
-      <c r="I73" s="13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>45240</v>
+        <v>45114</v>
       </c>
       <c r="B74" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" s="12">
-        <v>4</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>45243</v>
+        <v>45117</v>
       </c>
       <c r="B75" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D75" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F75" s="12">
-        <v>4</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G75" s="12">
+        <v>4</v>
       </c>
       <c r="H75" s="12">
-        <v>2</v>
-      </c>
-      <c r="I75" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>45244</v>
+        <v>45118</v>
       </c>
       <c r="B76" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="12">
         <v>6</v>
@@ -2372,306 +2237,2457 @@
         <v>9</v>
       </c>
       <c r="E76" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F76" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G76" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H76" s="12">
-        <v>4</v>
-      </c>
-      <c r="I76" s="13">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I76" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>45245</v>
+        <v>45119</v>
       </c>
       <c r="B77" s="12">
         <v>4</v>
       </c>
       <c r="C77" s="12">
+        <v>3</v>
+      </c>
+      <c r="D77" s="12">
+        <v>12</v>
+      </c>
+      <c r="E77" s="12">
         <v>13</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>0</v>
+      <c r="F77" s="12">
+        <v>4</v>
+      </c>
+      <c r="G77" s="12">
+        <v>2</v>
+      </c>
+      <c r="H77" s="12">
+        <v>1</v>
+      </c>
+      <c r="I77" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>0</v>
+        <v>45120</v>
+      </c>
+      <c r="B78" s="12">
+        <v>2</v>
+      </c>
+      <c r="C78" s="12">
+        <v>7</v>
       </c>
       <c r="D78" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E78" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F78" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G78" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H78" s="12">
-        <v>5</v>
-      </c>
-      <c r="I78" s="13">
+        <v>2</v>
+      </c>
+      <c r="I78" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B79" s="12" t="s">
+        <v>45121</v>
+      </c>
+      <c r="B79" s="12">
         <v>0</v>
       </c>
       <c r="C79" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="12">
         <v>3</v>
       </c>
       <c r="E79" s="12">
-        <v>7</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>45250</v>
+        <v>45124</v>
       </c>
       <c r="B80" s="12">
         <v>1</v>
       </c>
       <c r="C80" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D80" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E80" s="12">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F80" s="12">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="G80" s="12">
+        <v>10</v>
       </c>
       <c r="H80" s="12">
-        <v>4</v>
-      </c>
-      <c r="I80" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="I80" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>45251</v>
+        <v>45125</v>
       </c>
       <c r="B81" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C81" s="12">
+        <v>4</v>
+      </c>
+      <c r="D81" s="12">
         <v>8</v>
       </c>
-      <c r="D81" s="12">
-        <v>9</v>
-      </c>
       <c r="E81" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F81" s="12">
-        <v>16</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="G81" s="12">
+        <v>13</v>
+      </c>
+      <c r="H81" s="12">
+        <v>3</v>
+      </c>
+      <c r="I81" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>45252</v>
+        <v>45126</v>
       </c>
       <c r="B82" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C82" s="12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D82" s="12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E82" s="12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F82" s="12">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G82" s="12">
+        <v>8</v>
       </c>
       <c r="H82" s="12">
-        <v>7</v>
-      </c>
-      <c r="I82" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="I82" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>45253</v>
+        <v>45127</v>
       </c>
       <c r="B83" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E83" s="12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F83" s="12">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="12">
+        <v>10</v>
       </c>
       <c r="H83" s="12">
-        <v>10</v>
-      </c>
-      <c r="I83" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="I83" s="13">
+        <v>8</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>45254</v>
+        <v>45128</v>
       </c>
       <c r="B84" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E84" s="12">
-        <v>13</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>45257</v>
+        <v>45131</v>
       </c>
       <c r="B85" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D85" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E85" s="12">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F85" s="12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G85" s="12">
+        <v>9</v>
       </c>
       <c r="H85" s="12">
         <v>2</v>
       </c>
-      <c r="I85" s="13"/>
+      <c r="I85" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>45258</v>
+        <v>45132</v>
       </c>
       <c r="B86" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D86" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E86" s="12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F86" s="12">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="G86" s="12">
+        <v>5</v>
       </c>
       <c r="H86" s="12">
-        <v>11</v>
-      </c>
-      <c r="I86" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="I86" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B87" s="12">
+        <v>4</v>
+      </c>
+      <c r="C87" s="12">
+        <v>8</v>
+      </c>
+      <c r="D87" s="12">
+        <v>10</v>
+      </c>
+      <c r="E87" s="12">
+        <v>11</v>
+      </c>
+      <c r="F87" s="12">
+        <v>1</v>
+      </c>
+      <c r="G87" s="12">
+        <v>3</v>
+      </c>
+      <c r="H87" s="12">
+        <v>1</v>
+      </c>
+      <c r="I87" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B88" s="12">
+        <v>4</v>
+      </c>
+      <c r="C88" s="12">
+        <v>10</v>
+      </c>
+      <c r="D88" s="12">
+        <v>4</v>
+      </c>
+      <c r="E88" s="12">
+        <v>5</v>
+      </c>
+      <c r="F88" s="12">
+        <v>3</v>
+      </c>
+      <c r="G88" s="12">
+        <v>2</v>
+      </c>
+      <c r="H88" s="12">
+        <v>2</v>
+      </c>
+      <c r="I88" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B89" s="12">
+        <v>5</v>
+      </c>
+      <c r="C89" s="12">
+        <v>7</v>
+      </c>
+      <c r="D89" s="12">
+        <v>5</v>
+      </c>
+      <c r="E89" s="12">
+        <v>6</v>
+      </c>
+      <c r="F89" s="12">
+        <v>6</v>
+      </c>
+      <c r="G89" s="12">
+        <v>6</v>
+      </c>
+      <c r="H89" s="12">
+        <v>6</v>
+      </c>
+      <c r="I89" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B90" s="12">
+        <v>2</v>
+      </c>
+      <c r="C90" s="12">
+        <v>5</v>
+      </c>
+      <c r="D90" s="12">
+        <v>7</v>
+      </c>
+      <c r="E90" s="12">
+        <v>5</v>
+      </c>
+      <c r="F90" s="12">
+        <v>3</v>
+      </c>
+      <c r="G90" s="12">
+        <v>2</v>
+      </c>
+      <c r="H90" s="12">
+        <v>2</v>
+      </c>
+      <c r="I90" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B91" s="12">
+        <v>3</v>
+      </c>
+      <c r="C91" s="12">
+        <v>7</v>
+      </c>
+      <c r="D91" s="12">
+        <v>9</v>
+      </c>
+      <c r="E91" s="12">
+        <v>13</v>
+      </c>
+      <c r="F91" s="12">
+        <v>8</v>
+      </c>
+      <c r="G91" s="12">
+        <v>5</v>
+      </c>
+      <c r="H91" s="12">
+        <v>3</v>
+      </c>
+      <c r="I91" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B92" s="12">
+        <v>1</v>
+      </c>
+      <c r="C92" s="12">
+        <v>5</v>
+      </c>
+      <c r="D92" s="12">
+        <v>9</v>
+      </c>
+      <c r="E92" s="12">
+        <v>7</v>
+      </c>
+      <c r="F92" s="12">
+        <v>2</v>
+      </c>
+      <c r="G92" s="12">
+        <v>4</v>
+      </c>
+      <c r="H92" s="12">
+        <v>4</v>
+      </c>
+      <c r="I92" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B93" s="12">
+        <v>0</v>
+      </c>
+      <c r="C93" s="12">
+        <v>8</v>
+      </c>
+      <c r="D93" s="12">
+        <v>6</v>
+      </c>
+      <c r="E93" s="12">
+        <v>5</v>
+      </c>
+      <c r="F93" s="12">
+        <v>8</v>
+      </c>
+      <c r="G93" s="12">
+        <v>4</v>
+      </c>
+      <c r="H93" s="12">
+        <v>4</v>
+      </c>
+      <c r="I93" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B94" s="12">
+        <v>4</v>
+      </c>
+      <c r="C94" s="12">
+        <v>5</v>
+      </c>
+      <c r="D94" s="12">
+        <v>8</v>
+      </c>
+      <c r="E94" s="12">
+        <v>10</v>
+      </c>
+      <c r="F94" s="12">
+        <v>8</v>
+      </c>
+      <c r="G94" s="12">
+        <v>8</v>
+      </c>
+      <c r="H94" s="12">
+        <v>7</v>
+      </c>
+      <c r="I94" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B95" s="12">
+        <v>1</v>
+      </c>
+      <c r="C95" s="12">
+        <v>2</v>
+      </c>
+      <c r="D95" s="12">
+        <v>2</v>
+      </c>
+      <c r="E95" s="12">
+        <v>6</v>
+      </c>
+      <c r="F95" s="12">
+        <v>4</v>
+      </c>
+      <c r="G95" s="12">
+        <v>4</v>
+      </c>
+      <c r="H95" s="12">
+        <v>4</v>
+      </c>
+      <c r="I95" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45148</v>
+      </c>
+      <c r="C96" s="12">
+        <v>1</v>
+      </c>
+      <c r="D96" s="12">
+        <v>3</v>
+      </c>
+      <c r="E96" s="12">
+        <v>4</v>
+      </c>
+      <c r="F96" s="12">
+        <v>3</v>
+      </c>
+      <c r="G96" s="12">
+        <v>1</v>
+      </c>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45152</v>
+      </c>
+      <c r="C97" s="12">
+        <v>1</v>
+      </c>
+      <c r="D97" s="12">
+        <v>3</v>
+      </c>
+      <c r="E97" s="12">
+        <v>3</v>
+      </c>
+      <c r="F97" s="12">
+        <v>5</v>
+      </c>
+      <c r="G97" s="12">
+        <v>2</v>
+      </c>
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B98" s="12">
+        <v>1</v>
+      </c>
+      <c r="C98" s="12">
+        <v>1</v>
+      </c>
+      <c r="D98" s="12">
+        <v>2</v>
+      </c>
+      <c r="E98" s="12">
+        <v>2</v>
+      </c>
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>45154</v>
+      </c>
+      <c r="C99" s="12">
+        <v>2</v>
+      </c>
+      <c r="D99" s="12">
+        <v>4</v>
+      </c>
+      <c r="E99" s="12">
+        <v>3</v>
+      </c>
+      <c r="F99" s="12">
+        <v>2</v>
+      </c>
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>45155</v>
+      </c>
+      <c r="C100" s="12">
+        <v>0</v>
+      </c>
+      <c r="D100" s="12">
+        <v>6</v>
+      </c>
+      <c r="E100" s="12">
+        <v>5</v>
+      </c>
+      <c r="F100" s="12">
+        <v>2</v>
+      </c>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>45156</v>
+      </c>
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <v>2</v>
+      </c>
+      <c r="E101" s="12">
+        <v>3</v>
+      </c>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45159</v>
+      </c>
+      <c r="C102" s="12">
+        <v>1</v>
+      </c>
+      <c r="D102" s="12">
+        <v>2</v>
+      </c>
+      <c r="E102" s="12">
+        <v>3</v>
+      </c>
+      <c r="F102" s="12">
+        <v>1</v>
+      </c>
+      <c r="I102" s="13"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>45160</v>
+      </c>
+      <c r="C103" s="12">
+        <v>1</v>
+      </c>
+      <c r="D103" s="12">
+        <v>1</v>
+      </c>
+      <c r="E103" s="12">
+        <v>2</v>
+      </c>
+      <c r="F103" s="12">
+        <v>2</v>
+      </c>
+      <c r="I103" s="13"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B104" s="12">
+        <v>0</v>
+      </c>
+      <c r="C104" s="12">
+        <v>0</v>
+      </c>
+      <c r="D104" s="12">
+        <v>4</v>
+      </c>
+      <c r="E104" s="12">
+        <v>6</v>
+      </c>
+      <c r="F104" s="12">
+        <v>4</v>
+      </c>
+      <c r="G104" s="12">
+        <v>1</v>
+      </c>
+      <c r="H104" s="12">
+        <v>1</v>
+      </c>
+      <c r="I104" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45162</v>
+      </c>
+      <c r="C105" s="12">
+        <v>3</v>
+      </c>
+      <c r="D105" s="12">
+        <v>5</v>
+      </c>
+      <c r="E105" s="12">
+        <v>7</v>
+      </c>
+      <c r="F105" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B106" s="12">
+        <v>2</v>
+      </c>
+      <c r="C106" s="12">
+        <v>2</v>
+      </c>
+      <c r="D106" s="12">
+        <v>4</v>
+      </c>
+      <c r="E106" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B107" s="12">
+        <v>1</v>
+      </c>
+      <c r="C107" s="12">
+        <v>6</v>
+      </c>
+      <c r="D107" s="12">
+        <v>7</v>
+      </c>
+      <c r="E107" s="12">
+        <v>6</v>
+      </c>
+      <c r="F107" s="12">
+        <v>5</v>
+      </c>
+      <c r="G107" s="12">
+        <v>3</v>
+      </c>
+      <c r="H107" s="12">
+        <v>3</v>
+      </c>
+      <c r="I107" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B108" s="12">
+        <v>1</v>
+      </c>
+      <c r="C108" s="12">
+        <v>5</v>
+      </c>
+      <c r="D108" s="12">
+        <v>1</v>
+      </c>
+      <c r="E108" s="12">
+        <v>2</v>
+      </c>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" s="12">
+        <v>1</v>
+      </c>
+      <c r="H108" s="12">
+        <v>0</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B109" s="12">
+        <v>2</v>
+      </c>
+      <c r="C109" s="12">
+        <v>2</v>
+      </c>
+      <c r="D109" s="12">
+        <v>4</v>
+      </c>
+      <c r="E109" s="12">
+        <v>6</v>
+      </c>
+      <c r="F109" s="12">
+        <v>9</v>
+      </c>
+      <c r="G109" s="12">
+        <v>8</v>
+      </c>
+      <c r="H109" s="12">
+        <v>6</v>
+      </c>
+      <c r="I109" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B110" s="12">
+        <v>4</v>
+      </c>
+      <c r="C110" s="12">
+        <v>9</v>
+      </c>
+      <c r="D110" s="12">
+        <v>9</v>
+      </c>
+      <c r="E110" s="12">
+        <v>8</v>
+      </c>
+      <c r="F110" s="12">
+        <v>15</v>
+      </c>
+      <c r="G110" s="12">
+        <v>10</v>
+      </c>
+      <c r="H110" s="12">
+        <v>8</v>
+      </c>
+      <c r="I110" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B111" s="12">
+        <v>1</v>
+      </c>
+      <c r="C111" s="12">
+        <v>4</v>
+      </c>
+      <c r="D111" s="12">
+        <v>7</v>
+      </c>
+      <c r="E111" s="12">
+        <v>12</v>
+      </c>
+      <c r="F111" s="12">
+        <v>12</v>
+      </c>
+      <c r="H111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B112" s="12">
+        <v>1</v>
+      </c>
+      <c r="C112" s="12">
+        <v>5</v>
+      </c>
+      <c r="D112" s="12">
+        <v>12</v>
+      </c>
+      <c r="E112" s="12">
+        <v>15</v>
+      </c>
+      <c r="F112" s="12">
+        <v>13</v>
+      </c>
+      <c r="G112" s="12">
+        <v>13</v>
+      </c>
+      <c r="H112" s="12">
+        <v>13</v>
+      </c>
+      <c r="I112" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B113" s="12">
+        <v>2</v>
+      </c>
+      <c r="C113" s="12">
+        <v>6</v>
+      </c>
+      <c r="D113" s="12">
+        <v>11</v>
+      </c>
+      <c r="E113" s="12">
+        <v>8</v>
+      </c>
+      <c r="F113" s="12">
+        <v>5</v>
+      </c>
+      <c r="G113" s="12">
+        <v>5</v>
+      </c>
+      <c r="H113" s="12">
+        <v>5</v>
+      </c>
+      <c r="I113" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B114" s="12">
+        <v>3</v>
+      </c>
+      <c r="C114" s="12">
+        <v>7</v>
+      </c>
+      <c r="D114" s="12">
+        <v>9</v>
+      </c>
+      <c r="E114" s="12">
+        <v>12</v>
+      </c>
+      <c r="F114" s="12">
+        <v>7</v>
+      </c>
+      <c r="G114" s="12">
+        <v>2</v>
+      </c>
+      <c r="H114" s="12">
+        <v>1</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B115" s="12">
+        <v>2</v>
+      </c>
+      <c r="C115" s="12">
+        <v>8</v>
+      </c>
+      <c r="D115" s="12">
+        <v>10</v>
+      </c>
+      <c r="E115" s="12">
+        <v>15</v>
+      </c>
+      <c r="F115" s="12">
+        <v>9</v>
+      </c>
+      <c r="G115" s="12">
+        <v>9</v>
+      </c>
+      <c r="H115" s="12">
+        <v>4</v>
+      </c>
+      <c r="I115" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B116" s="12">
+        <v>0</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0</v>
+      </c>
+      <c r="D116" s="12">
+        <v>1</v>
+      </c>
+      <c r="E116" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B117" s="12">
+        <v>0</v>
+      </c>
+      <c r="C117" s="12">
+        <v>7</v>
+      </c>
+      <c r="D117" s="12">
+        <v>8</v>
+      </c>
+      <c r="E117" s="12">
+        <v>6</v>
+      </c>
+      <c r="F117" s="12">
+        <v>6</v>
+      </c>
+      <c r="G117" s="12">
+        <v>4</v>
+      </c>
+      <c r="H117" s="12">
+        <v>4</v>
+      </c>
+      <c r="I117" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B118" s="12">
+        <v>4</v>
+      </c>
+      <c r="C118" s="12">
+        <v>6</v>
+      </c>
+      <c r="D118" s="12">
+        <v>8</v>
+      </c>
+      <c r="E118" s="12">
+        <v>15</v>
+      </c>
+      <c r="F118" s="12">
+        <v>8</v>
+      </c>
+      <c r="G118" s="12">
+        <v>8</v>
+      </c>
+      <c r="H118" s="12">
+        <v>8</v>
+      </c>
+      <c r="I118" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B119" s="12">
+        <v>4</v>
+      </c>
+      <c r="C119" s="12">
+        <v>5</v>
+      </c>
+      <c r="D119" s="12">
+        <v>4</v>
+      </c>
+      <c r="E119" s="12">
+        <v>14</v>
+      </c>
+      <c r="F119" s="12">
+        <v>11</v>
+      </c>
+      <c r="G119" s="12">
+        <v>10</v>
+      </c>
+      <c r="H119" s="12">
+        <v>9</v>
+      </c>
+      <c r="I119" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B120" s="12">
+        <v>1</v>
+      </c>
+      <c r="C120" s="12">
+        <v>11</v>
+      </c>
+      <c r="D120" s="12">
+        <v>14</v>
+      </c>
+      <c r="E120" s="12">
+        <v>18</v>
+      </c>
+      <c r="F120" s="12">
+        <v>9</v>
+      </c>
+      <c r="G120" s="12">
+        <v>9</v>
+      </c>
+      <c r="H120" s="12">
+        <v>7</v>
+      </c>
+      <c r="I120" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B121" s="12">
+        <v>0</v>
+      </c>
+      <c r="C121" s="12">
+        <v>8</v>
+      </c>
+      <c r="D121" s="12">
+        <v>9</v>
+      </c>
+      <c r="E121" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B122" s="12">
+        <v>2</v>
+      </c>
+      <c r="C122" s="12">
+        <v>3</v>
+      </c>
+      <c r="D122" s="12">
+        <v>6</v>
+      </c>
+      <c r="E122" s="12">
+        <v>11</v>
+      </c>
+      <c r="F122" s="12">
+        <v>8</v>
+      </c>
+      <c r="G122" s="12">
+        <v>8</v>
+      </c>
+      <c r="H122" s="12">
+        <v>4</v>
+      </c>
+      <c r="I122" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B123" s="12">
+        <v>2</v>
+      </c>
+      <c r="C123" s="12">
+        <v>6</v>
+      </c>
+      <c r="D123" s="12">
+        <v>7</v>
+      </c>
+      <c r="E123" s="12">
+        <v>9</v>
+      </c>
+      <c r="F123" s="12">
+        <v>4</v>
+      </c>
+      <c r="G123" s="12">
+        <v>2</v>
+      </c>
+      <c r="H123" s="12">
+        <v>1</v>
+      </c>
+      <c r="I123" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B124" s="12">
+        <v>1</v>
+      </c>
+      <c r="C124" s="12">
+        <v>9</v>
+      </c>
+      <c r="D124" s="12">
+        <v>10</v>
+      </c>
+      <c r="E124" s="12">
+        <v>15</v>
+      </c>
+      <c r="F124" s="12">
+        <v>8</v>
+      </c>
+      <c r="G124" s="12">
+        <v>8</v>
+      </c>
+      <c r="H124" s="12">
+        <v>8</v>
+      </c>
+      <c r="I124" s="13"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B125" s="12">
+        <v>1</v>
+      </c>
+      <c r="C125" s="12">
+        <v>1</v>
+      </c>
+      <c r="D125" s="12">
+        <v>4</v>
+      </c>
+      <c r="E125" s="12">
+        <v>6</v>
+      </c>
+      <c r="I125" s="13"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B126" s="12">
+        <v>1</v>
+      </c>
+      <c r="C126" s="12">
+        <v>7</v>
+      </c>
+      <c r="D126" s="12">
+        <v>8</v>
+      </c>
+      <c r="E126" s="12">
+        <v>7</v>
+      </c>
+      <c r="F126" s="12">
+        <v>3</v>
+      </c>
+      <c r="G126" s="12">
+        <v>3</v>
+      </c>
+      <c r="H126" s="12">
+        <v>2</v>
+      </c>
+      <c r="I126" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B127" s="12">
+        <v>3</v>
+      </c>
+      <c r="C127" s="12">
+        <v>2</v>
+      </c>
+      <c r="D127" s="12">
+        <v>9</v>
+      </c>
+      <c r="E127" s="12">
+        <v>6</v>
+      </c>
+      <c r="F127" s="12">
+        <v>2</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B128" s="12">
+        <v>2</v>
+      </c>
+      <c r="C128" s="12">
+        <v>4</v>
+      </c>
+      <c r="D128" s="12">
+        <v>9</v>
+      </c>
+      <c r="E128" s="12">
+        <v>12</v>
+      </c>
+      <c r="I128" s="13"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B129" s="12">
+        <v>2</v>
+      </c>
+      <c r="C129" s="12">
+        <v>3</v>
+      </c>
+      <c r="D129" s="12">
+        <v>8</v>
+      </c>
+      <c r="E129" s="12">
+        <v>4</v>
+      </c>
+      <c r="F129" s="12">
+        <v>2</v>
+      </c>
+      <c r="G129" s="12">
+        <v>2</v>
+      </c>
+      <c r="H129" s="12">
+        <v>0</v>
+      </c>
+      <c r="I129" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B130" s="12">
+        <v>1</v>
+      </c>
+      <c r="C130" s="12">
+        <v>5</v>
+      </c>
+      <c r="D130" s="12">
+        <v>6</v>
+      </c>
+      <c r="E130" s="12">
+        <v>5</v>
+      </c>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B131" s="12">
+        <v>2</v>
+      </c>
+      <c r="C131" s="12">
+        <v>2</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0</v>
+      </c>
+      <c r="E131" s="12">
+        <v>3</v>
+      </c>
+      <c r="F131" s="12">
+        <v>1</v>
+      </c>
+      <c r="G131" s="12">
+        <v>1</v>
+      </c>
+      <c r="H131" s="12">
+        <v>1</v>
+      </c>
+      <c r="I131" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B132" s="12">
+        <v>0</v>
+      </c>
+      <c r="C132" s="12">
+        <v>0</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0</v>
+      </c>
+      <c r="E132" s="12">
+        <v>0</v>
+      </c>
+      <c r="F132" s="12">
+        <v>0</v>
+      </c>
+      <c r="G132" s="12">
+        <v>0</v>
+      </c>
+      <c r="H132" s="12">
+        <v>0</v>
+      </c>
+      <c r="I132" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B133" s="12">
+        <v>3</v>
+      </c>
+      <c r="C133" s="12">
+        <v>5</v>
+      </c>
+      <c r="D133" s="12">
+        <v>6</v>
+      </c>
+      <c r="E133" s="12">
+        <v>5</v>
+      </c>
+      <c r="F133" s="12">
+        <v>4</v>
+      </c>
+      <c r="G133" s="12">
+        <v>4</v>
+      </c>
+      <c r="H133" s="12">
+        <v>2</v>
+      </c>
+      <c r="I133" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B134" s="12">
+        <v>1</v>
+      </c>
+      <c r="C134" s="12">
+        <v>2</v>
+      </c>
+      <c r="D134" s="12">
+        <v>3</v>
+      </c>
+      <c r="E134" s="12">
+        <v>4</v>
+      </c>
+      <c r="F134" s="12">
+        <v>2</v>
+      </c>
+      <c r="G134" s="12">
+        <v>2</v>
+      </c>
+      <c r="H134" s="12">
+        <v>1</v>
+      </c>
+      <c r="I134" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B135" s="12">
+        <v>3</v>
+      </c>
+      <c r="C135" s="12">
+        <v>2</v>
+      </c>
+      <c r="D135" s="12">
+        <v>1</v>
+      </c>
+      <c r="E135" s="12">
+        <v>3</v>
+      </c>
+      <c r="I135" s="13"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B136" s="12">
+        <v>2</v>
+      </c>
+      <c r="C136" s="12">
+        <v>3</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1</v>
+      </c>
+      <c r="E136" s="12">
+        <v>2</v>
+      </c>
+      <c r="F136" s="12">
+        <v>2</v>
+      </c>
+      <c r="G136" s="12">
+        <v>2</v>
+      </c>
+      <c r="H136" s="12">
+        <v>2</v>
+      </c>
+      <c r="I136" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B137" s="12">
+        <v>2</v>
+      </c>
+      <c r="C137" s="12">
+        <v>4</v>
+      </c>
+      <c r="D137" s="12">
+        <v>7</v>
+      </c>
+      <c r="E137" s="12">
+        <v>5</v>
+      </c>
+      <c r="H137" s="12">
+        <v>1</v>
+      </c>
+      <c r="I137" s="13"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B138" s="12">
+        <v>4</v>
+      </c>
+      <c r="C138" s="12">
+        <v>4</v>
+      </c>
+      <c r="D138" s="12">
+        <v>6</v>
+      </c>
+      <c r="E138" s="12">
+        <v>3</v>
+      </c>
+      <c r="F138" s="12">
+        <v>1</v>
+      </c>
+      <c r="G138" s="12">
+        <v>2</v>
+      </c>
+      <c r="H138" s="12">
+        <v>1</v>
+      </c>
+      <c r="I138" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B139" s="12">
+        <v>3</v>
+      </c>
+      <c r="C139" s="12">
+        <v>5</v>
+      </c>
+      <c r="D139" s="12">
+        <v>4</v>
+      </c>
+      <c r="E139" s="12">
+        <v>3</v>
+      </c>
+      <c r="F139" s="12">
+        <v>2</v>
+      </c>
+      <c r="G139" s="12">
+        <v>2</v>
+      </c>
+      <c r="H139" s="12">
+        <v>2</v>
+      </c>
+      <c r="I139" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B140" s="12">
+        <v>2</v>
+      </c>
+      <c r="C140" s="12">
+        <v>3</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0</v>
+      </c>
+      <c r="E140" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B141" s="12">
+        <v>2</v>
+      </c>
+      <c r="C141" s="12">
+        <v>7</v>
+      </c>
+      <c r="D141" s="12">
+        <v>8</v>
+      </c>
+      <c r="E141" s="12">
+        <v>7</v>
+      </c>
+      <c r="F141" s="12">
+        <v>7</v>
+      </c>
+      <c r="H141" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B142" s="12">
+        <v>1</v>
+      </c>
+      <c r="C142" s="12">
+        <v>4</v>
+      </c>
+      <c r="D142" s="12">
+        <v>2</v>
+      </c>
+      <c r="E142" s="12">
+        <v>4</v>
+      </c>
+      <c r="F142" s="12">
+        <v>1</v>
+      </c>
+      <c r="G142" s="12">
+        <v>1</v>
+      </c>
+      <c r="H142" s="12">
+        <v>1</v>
+      </c>
+      <c r="I142" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B143" s="12">
+        <v>1</v>
+      </c>
+      <c r="C143" s="12">
+        <v>4</v>
+      </c>
+      <c r="D143" s="12">
+        <v>12</v>
+      </c>
+      <c r="E143" s="12">
+        <v>7</v>
+      </c>
+      <c r="F143" s="12">
+        <v>5</v>
+      </c>
+      <c r="G143" s="12">
+        <v>4</v>
+      </c>
+      <c r="H143" s="12">
+        <v>4</v>
+      </c>
+      <c r="I143" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B144" s="12">
+        <v>6</v>
+      </c>
+      <c r="C144" s="12">
+        <v>7</v>
+      </c>
+      <c r="D144" s="12">
+        <v>16</v>
+      </c>
+      <c r="E144" s="12">
+        <v>5</v>
+      </c>
+      <c r="F144" s="12">
+        <v>2</v>
+      </c>
+      <c r="G144" s="12">
+        <v>2</v>
+      </c>
+      <c r="H144" s="12">
+        <v>2</v>
+      </c>
+      <c r="I144" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B145" s="9">
+        <v>5</v>
+      </c>
+      <c r="C145" s="9">
+        <v>2</v>
+      </c>
+      <c r="D145" s="9">
+        <v>6</v>
+      </c>
+      <c r="E145" s="9">
+        <v>6</v>
+      </c>
+      <c r="F145" s="9"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B146" s="9">
+        <v>1</v>
+      </c>
+      <c r="C146" s="9">
+        <v>4</v>
+      </c>
+      <c r="D146" s="9">
+        <v>8</v>
+      </c>
+      <c r="E146" s="9">
+        <v>6</v>
+      </c>
+      <c r="F146" s="9">
+        <v>5</v>
+      </c>
+      <c r="G146" s="9">
+        <v>5</v>
+      </c>
+      <c r="H146" s="9">
+        <v>4</v>
+      </c>
+      <c r="I146" s="10"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B147" s="9">
+        <v>4</v>
+      </c>
+      <c r="C147" s="9">
+        <v>7</v>
+      </c>
+      <c r="D147" s="9">
+        <v>12</v>
+      </c>
+      <c r="E147" s="9">
+        <v>7</v>
+      </c>
+      <c r="F147" s="9">
+        <v>2</v>
+      </c>
+      <c r="G147" s="9">
+        <v>2</v>
+      </c>
+      <c r="H147" s="9">
+        <v>2</v>
+      </c>
+      <c r="I147" s="11">
+        <v>0</v>
+      </c>
+      <c r="J147" s="17"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B148" s="9">
+        <v>6</v>
+      </c>
+      <c r="C148" s="9">
+        <v>5</v>
+      </c>
+      <c r="D148" s="9">
+        <v>16</v>
+      </c>
+      <c r="E148" s="9">
+        <v>13</v>
+      </c>
+      <c r="F148" s="9">
+        <v>8</v>
+      </c>
+      <c r="G148" s="9">
+        <v>4</v>
+      </c>
+      <c r="H148" s="9">
+        <v>3</v>
+      </c>
+      <c r="I148" s="11">
+        <v>2</v>
+      </c>
+      <c r="J148" s="17"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B149" s="12">
+        <v>0</v>
+      </c>
+      <c r="C149" s="12">
+        <v>4</v>
+      </c>
+      <c r="D149" s="12">
+        <v>12</v>
+      </c>
+      <c r="E149" s="12">
+        <v>6</v>
+      </c>
+      <c r="F149" s="12">
+        <v>7</v>
+      </c>
+      <c r="G149" s="9">
+        <v>6</v>
+      </c>
+      <c r="H149" s="12">
+        <v>0</v>
+      </c>
+      <c r="I149" s="13">
+        <v>0</v>
+      </c>
+      <c r="J149" s="18"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B150" s="12">
+        <v>2</v>
+      </c>
+      <c r="C150" s="12">
+        <v>1</v>
+      </c>
+      <c r="D150" s="12">
+        <v>2</v>
+      </c>
+      <c r="E150" s="12">
+        <v>2</v>
+      </c>
+      <c r="G150" s="6"/>
+      <c r="I150" s="13"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B151" s="12">
+        <v>1</v>
+      </c>
+      <c r="C151" s="12">
+        <v>2</v>
+      </c>
+      <c r="D151" s="12">
+        <v>7</v>
+      </c>
+      <c r="E151" s="12">
+        <v>3</v>
+      </c>
+      <c r="F151" s="12">
+        <v>5</v>
+      </c>
+      <c r="G151" s="9">
+        <v>4</v>
+      </c>
+      <c r="H151" s="12">
+        <v>2</v>
+      </c>
+      <c r="I151" s="13"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B152" s="12">
+        <v>3</v>
+      </c>
+      <c r="C152" s="12">
+        <v>7</v>
+      </c>
+      <c r="D152" s="12">
+        <v>18</v>
+      </c>
+      <c r="E152" s="12">
+        <v>4</v>
+      </c>
+      <c r="F152" s="12">
+        <v>4</v>
+      </c>
+      <c r="G152" s="9">
+        <v>2</v>
+      </c>
+      <c r="H152" s="12">
+        <v>2</v>
+      </c>
+      <c r="I152" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B153" s="12">
+        <v>1</v>
+      </c>
+      <c r="C153" s="12">
+        <v>7</v>
+      </c>
+      <c r="D153" s="12">
+        <v>6</v>
+      </c>
+      <c r="E153" s="12">
+        <v>7</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B154" s="12">
+        <v>2</v>
+      </c>
+      <c r="C154" s="12">
+        <v>6</v>
+      </c>
+      <c r="D154" s="12">
+        <v>8</v>
+      </c>
+      <c r="E154" s="12">
+        <v>5</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B155" s="12">
+        <v>1</v>
+      </c>
+      <c r="C155" s="12">
+        <v>5</v>
+      </c>
+      <c r="D155" s="12">
+        <v>9</v>
+      </c>
+      <c r="E155" s="12">
+        <v>9</v>
+      </c>
+      <c r="F155" s="12">
+        <v>7</v>
+      </c>
+      <c r="G155" s="12">
+        <v>5</v>
+      </c>
+      <c r="H155" s="12">
+        <v>4</v>
+      </c>
+      <c r="I155" s="13"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B156" s="12">
+        <v>5</v>
+      </c>
+      <c r="C156" s="12">
+        <v>10</v>
+      </c>
+      <c r="D156" s="12">
+        <v>8</v>
+      </c>
+      <c r="E156" s="12">
+        <v>10</v>
+      </c>
+      <c r="F156" s="12">
+        <v>2</v>
+      </c>
+      <c r="G156" s="12">
+        <v>2</v>
+      </c>
+      <c r="H156" s="12">
+        <v>1</v>
+      </c>
+      <c r="I156" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B157" s="12">
+        <v>3</v>
+      </c>
+      <c r="C157" s="12">
+        <v>8</v>
+      </c>
+      <c r="D157" s="12">
+        <v>16</v>
+      </c>
+      <c r="E157" s="12">
+        <v>12</v>
+      </c>
+      <c r="F157" s="12">
+        <v>7</v>
+      </c>
+      <c r="G157" s="12">
+        <v>3</v>
+      </c>
+      <c r="H157" s="12">
+        <v>3</v>
+      </c>
+      <c r="I157" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B158" s="12">
+        <v>1</v>
+      </c>
+      <c r="C158" s="12">
+        <v>7</v>
+      </c>
+      <c r="D158" s="12">
+        <v>13</v>
+      </c>
+      <c r="E158" s="12">
+        <v>7</v>
+      </c>
+      <c r="F158" s="12">
+        <v>2</v>
+      </c>
+      <c r="G158" s="12">
+        <v>2</v>
+      </c>
+      <c r="H158" s="12">
+        <v>2</v>
+      </c>
+      <c r="I158" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B159" s="12">
+        <v>2</v>
+      </c>
+      <c r="C159" s="12">
+        <v>5</v>
+      </c>
+      <c r="D159" s="12">
+        <v>2</v>
+      </c>
+      <c r="E159" s="12">
+        <v>4</v>
+      </c>
+      <c r="G159" s="6"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B160" s="12">
+        <v>1</v>
+      </c>
+      <c r="C160" s="12">
+        <v>7</v>
+      </c>
+      <c r="D160" s="12">
+        <v>10</v>
+      </c>
+      <c r="E160" s="12">
+        <v>8</v>
+      </c>
+      <c r="F160" s="12">
+        <v>4</v>
+      </c>
+      <c r="G160" s="6"/>
+      <c r="H160" s="12">
+        <v>2</v>
+      </c>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B161" s="12">
+        <v>2</v>
+      </c>
+      <c r="C161" s="12">
+        <v>6</v>
+      </c>
+      <c r="D161" s="12">
+        <v>9</v>
+      </c>
+      <c r="E161" s="12">
+        <v>12</v>
+      </c>
+      <c r="F161" s="12">
+        <v>7</v>
+      </c>
+      <c r="G161" s="12">
+        <v>4</v>
+      </c>
+      <c r="H161" s="12">
+        <v>4</v>
+      </c>
+      <c r="I161" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B162" s="12">
+        <v>4</v>
+      </c>
+      <c r="C162" s="12">
+        <v>13</v>
+      </c>
+      <c r="I162" s="13"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45246</v>
+      </c>
+      <c r="D163" s="12">
+        <v>7</v>
+      </c>
+      <c r="E163" s="12">
+        <v>10</v>
+      </c>
+      <c r="F163" s="12">
+        <v>8</v>
+      </c>
+      <c r="G163" s="12">
+        <v>7</v>
+      </c>
+      <c r="H163" s="12">
+        <v>5</v>
+      </c>
+      <c r="I163" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45247</v>
+      </c>
+      <c r="C164" s="12">
+        <v>1</v>
+      </c>
+      <c r="D164" s="12">
+        <v>3</v>
+      </c>
+      <c r="E164" s="12">
+        <v>7</v>
+      </c>
+      <c r="I164" s="13"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B165" s="12">
+        <v>1</v>
+      </c>
+      <c r="C165" s="12">
+        <v>1</v>
+      </c>
+      <c r="D165" s="12">
+        <v>3</v>
+      </c>
+      <c r="E165" s="12">
+        <v>5</v>
+      </c>
+      <c r="F165" s="12">
+        <v>4</v>
+      </c>
+      <c r="H165" s="12">
+        <v>4</v>
+      </c>
+      <c r="I165" s="13"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B166" s="12">
+        <v>5</v>
+      </c>
+      <c r="C166" s="12">
+        <v>8</v>
+      </c>
+      <c r="D166" s="12">
+        <v>9</v>
+      </c>
+      <c r="E166" s="12">
+        <v>15</v>
+      </c>
+      <c r="F166" s="12">
+        <v>16</v>
+      </c>
+      <c r="I166" s="13"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B167" s="12">
+        <v>10</v>
+      </c>
+      <c r="C167" s="12">
+        <v>15</v>
+      </c>
+      <c r="D167" s="12">
+        <v>18</v>
+      </c>
+      <c r="E167" s="12">
+        <v>20</v>
+      </c>
+      <c r="F167" s="12">
+        <v>12</v>
+      </c>
+      <c r="H167" s="12">
+        <v>7</v>
+      </c>
+      <c r="I167" s="13"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B168" s="12">
+        <v>4</v>
+      </c>
+      <c r="C168" s="12">
+        <v>16</v>
+      </c>
+      <c r="D168" s="12">
+        <v>18</v>
+      </c>
+      <c r="E168" s="12">
+        <v>20</v>
+      </c>
+      <c r="F168" s="12">
+        <v>17</v>
+      </c>
+      <c r="H168" s="12">
+        <v>10</v>
+      </c>
+      <c r="I168" s="13"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B169" s="12">
+        <v>3</v>
+      </c>
+      <c r="C169" s="12">
+        <v>4</v>
+      </c>
+      <c r="D169" s="12">
+        <v>8</v>
+      </c>
+      <c r="E169" s="12">
+        <v>13</v>
+      </c>
+      <c r="I169" s="13"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B170" s="12">
+        <v>3</v>
+      </c>
+      <c r="C170" s="12">
+        <v>5</v>
+      </c>
+      <c r="D170" s="12">
+        <v>7</v>
+      </c>
+      <c r="E170" s="12">
+        <v>5</v>
+      </c>
+      <c r="F170" s="12">
+        <v>4</v>
+      </c>
+      <c r="H170" s="12">
+        <v>2</v>
+      </c>
+      <c r="I170" s="13"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B171" s="12">
+        <v>4</v>
+      </c>
+      <c r="C171" s="12">
+        <v>4</v>
+      </c>
+      <c r="D171" s="12">
+        <v>10</v>
+      </c>
+      <c r="E171" s="12">
+        <v>14</v>
+      </c>
+      <c r="F171" s="12">
+        <v>12</v>
+      </c>
+      <c r="H171" s="12">
+        <v>11</v>
+      </c>
+      <c r="I171" s="13"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
         <v>45259</v>
       </c>
-      <c r="B87" s="12">
-        <v>7</v>
-      </c>
-      <c r="C87" s="12">
-        <v>7</v>
-      </c>
-      <c r="D87" s="12">
+      <c r="B172" s="12">
+        <v>7</v>
+      </c>
+      <c r="C172" s="12">
+        <v>7</v>
+      </c>
+      <c r="D172" s="12">
         <v>19</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E172" s="12">
         <v>19</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F172" s="12">
         <v>9</v>
       </c>
-      <c r="H87" s="12">
-        <v>5</v>
-      </c>
-      <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I88" s="13"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I89" s="13"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I91" s="13"/>
+      <c r="H172" s="12">
+        <v>5</v>
+      </c>
+      <c r="I172" s="13"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I173" s="13"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I174" s="13"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I175" s="13"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I176" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Visitor_Forecast.xlsx
+++ b/data/Visitor_Forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Visitor-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12237060-7393-45BF-B20A-B310BAE406C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B80429-1F31-4841-8F75-DA4A47DA7C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{453D2946-0AEF-40C2-AED9-9CB59B659027}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/Visitor_Forecast.xlsx
+++ b/data/Visitor_Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Visitor-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214DE7F-26DE-49AF-8061-CB4E036E4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79C705-FB49-45A1-9514-BCA52A4A002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{453D2946-0AEF-40C2-AED9-9CB59B659027}"/>
+    <workbookView xWindow="7580" yWindow="0" windowWidth="11710" windowHeight="11370" xr2:uid="{453D2946-0AEF-40C2-AED9-9CB59B659027}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB99865C-55B5-452E-B619-FE821BAB7768}">
-  <dimension ref="A1:N717"/>
+  <dimension ref="A1:N708"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A690" workbookViewId="0">
+      <selection activeCell="B708" sqref="B708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7405,215 +7405,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A705" s="1">
-        <v>45247</v>
-      </c>
-      <c r="C705" s="12">
-        <v>1</v>
-      </c>
-      <c r="D705" s="12">
-        <v>3</v>
-      </c>
-      <c r="E705" s="12">
-        <v>7</v>
-      </c>
+    <row r="705" spans="9:9" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I705" s="13"/>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A706" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B706" s="12">
-        <v>1</v>
-      </c>
-      <c r="C706" s="12">
-        <v>1</v>
-      </c>
-      <c r="D706" s="12">
-        <v>3</v>
-      </c>
-      <c r="E706" s="12">
-        <v>5</v>
-      </c>
-      <c r="F706" s="12">
-        <v>4</v>
-      </c>
-      <c r="H706" s="12">
-        <v>4</v>
-      </c>
+    <row r="706" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I706" s="13"/>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A707" s="1">
-        <v>45251</v>
-      </c>
-      <c r="B707" s="12">
-        <v>5</v>
-      </c>
-      <c r="C707" s="12">
-        <v>8</v>
-      </c>
-      <c r="D707" s="12">
-        <v>9</v>
-      </c>
-      <c r="E707" s="12">
-        <v>15</v>
-      </c>
-      <c r="F707" s="12">
-        <v>16</v>
-      </c>
+    <row r="707" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I707" s="13"/>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A708" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B708" s="12">
-        <v>10</v>
-      </c>
-      <c r="C708" s="12">
-        <v>15</v>
-      </c>
-      <c r="D708" s="12">
-        <v>18</v>
-      </c>
-      <c r="E708" s="12">
-        <v>20</v>
-      </c>
-      <c r="F708" s="12">
-        <v>12</v>
-      </c>
-      <c r="H708" s="12">
-        <v>7</v>
-      </c>
+    <row r="708" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I708" s="13"/>
-    </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A709" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B709" s="12">
-        <v>4</v>
-      </c>
-      <c r="C709" s="12">
-        <v>16</v>
-      </c>
-      <c r="D709" s="12">
-        <v>18</v>
-      </c>
-      <c r="E709" s="12">
-        <v>20</v>
-      </c>
-      <c r="F709" s="12">
-        <v>17</v>
-      </c>
-      <c r="H709" s="12">
-        <v>10</v>
-      </c>
-      <c r="I709" s="13"/>
-    </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A710" s="1">
-        <v>45254</v>
-      </c>
-      <c r="B710" s="12">
-        <v>3</v>
-      </c>
-      <c r="C710" s="12">
-        <v>4</v>
-      </c>
-      <c r="D710" s="12">
-        <v>8</v>
-      </c>
-      <c r="E710" s="12">
-        <v>13</v>
-      </c>
-      <c r="I710" s="13"/>
-    </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A711" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B711" s="12">
-        <v>3</v>
-      </c>
-      <c r="C711" s="12">
-        <v>5</v>
-      </c>
-      <c r="D711" s="12">
-        <v>7</v>
-      </c>
-      <c r="E711" s="12">
-        <v>5</v>
-      </c>
-      <c r="F711" s="12">
-        <v>4</v>
-      </c>
-      <c r="H711" s="12">
-        <v>2</v>
-      </c>
-      <c r="I711" s="13"/>
-    </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A712" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B712" s="12">
-        <v>4</v>
-      </c>
-      <c r="C712" s="12">
-        <v>4</v>
-      </c>
-      <c r="D712" s="12">
-        <v>10</v>
-      </c>
-      <c r="E712" s="12">
-        <v>14</v>
-      </c>
-      <c r="F712" s="12">
-        <v>12</v>
-      </c>
-      <c r="H712" s="12">
-        <v>11</v>
-      </c>
-      <c r="I712" s="13"/>
-    </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A713" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B713" s="12">
-        <v>7</v>
-      </c>
-      <c r="C713" s="12">
-        <v>7</v>
-      </c>
-      <c r="D713" s="12">
-        <v>19</v>
-      </c>
-      <c r="E713" s="12">
-        <v>19</v>
-      </c>
-      <c r="F713" s="12">
-        <v>9</v>
-      </c>
-      <c r="H713" s="12">
-        <v>5</v>
-      </c>
-      <c r="I713" s="13"/>
-    </row>
-    <row r="714" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I714" s="13"/>
-    </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I715" s="13"/>
-    </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I716" s="13"/>
-    </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I717" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
